--- a/bh3/546908113136528069_2021-07-13_19-22-48.xlsx
+++ b/bh3/546908113136528069_2021-07-13_19-22-48.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6101,7 +6101,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7436,7 +7436,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -8040,7 +8040,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -8482,7 +8482,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -9670,7 +9670,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -11185,7 +11185,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -12321,7 +12321,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13886,7 +13886,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -14028,7 +14028,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -14471,7 +14471,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14763,7 +14763,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -21651,7 +21651,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -22726,7 +22726,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -24173,7 +24173,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -24316,7 +24316,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -24537,7 +24537,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -25839,7 +25839,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -26049,7 +26049,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -26392,7 +26392,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -27726,7 +27726,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -31520,7 +31520,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -32956,7 +32956,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -34448,7 +34448,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -34827,7 +34827,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -36573,7 +36573,7 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -45608,7 +45608,7 @@
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K619" t="inlineStr">
@@ -48320,7 +48320,7 @@
         </is>
       </c>
       <c r="I656" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J656" t="inlineStr">
         <is>
@@ -49011,7 +49011,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K665" t="inlineStr">
@@ -54707,7 +54707,7 @@
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K742" t="inlineStr">
@@ -55750,7 +55750,7 @@
       </c>
       <c r="J756" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K756" t="inlineStr">
@@ -56776,7 +56776,7 @@
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K770" t="inlineStr">
@@ -57674,7 +57674,7 @@
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K782" t="inlineStr">
@@ -58263,7 +58263,7 @@
         </is>
       </c>
       <c r="I790" t="n">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="J790" t="inlineStr">
         <is>
@@ -60317,7 +60317,7 @@
         </is>
       </c>
       <c r="F818" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G818" t="inlineStr">
         <is>
